--- a/AEXP/exp.xlsx
+++ b/AEXP/exp.xlsx
@@ -1,18 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10509"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\eq22858\Documents\GitHub\CL_RecSys\AEXP\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/haolunwu/Research_project/CL_RecSys/AEXP/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B5EAD4A-467D-1444-8070-82624D00D9A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7620"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16300" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -24,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="31">
   <si>
     <t>Dataset</t>
   </si>
@@ -87,20 +89,56 @@
   </si>
   <si>
     <t>step-3</t>
+  </si>
+  <si>
+    <t>ml-1m</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>test</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>block1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>block2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>block5</t>
+  </si>
+  <si>
+    <t>block6</t>
+  </si>
+  <si>
+    <t>block7</t>
+  </si>
+  <si>
+    <t>block8</t>
+  </si>
+  <si>
+    <t>finetune</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>self-emb</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="0.0000"/>
+    <numFmt numFmtId="176" formatCode="0.0000"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -108,9 +146,22 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FF212121"/>
+      <name val="Courier New"/>
+      <family val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -195,59 +246,60 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -524,45 +576,45 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:O19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="N8" sqref="N8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="15" width="10.7109375" customWidth="1"/>
+    <col min="1" max="15" width="10.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="D2" s="6" t="s">
+    <row r="2" spans="1:15">
+      <c r="D2" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="7"/>
-      <c r="F2" s="6" t="s">
+      <c r="E2" s="17"/>
+      <c r="F2" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="7"/>
-      <c r="H2" s="6" t="s">
+      <c r="G2" s="17"/>
+      <c r="H2" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="I2" s="7"/>
-      <c r="J2" s="6" t="s">
+      <c r="I2" s="17"/>
+      <c r="J2" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="K2" s="7"/>
-      <c r="L2" s="6" t="s">
+      <c r="K2" s="17"/>
+      <c r="L2" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="M2" s="7"/>
-      <c r="N2" s="2" t="s">
+      <c r="M2" s="17"/>
+      <c r="N2" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="O2" s="2"/>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O2" s="18"/>
+    </row>
+    <row r="3" spans="1:15">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
@@ -572,34 +624,34 @@
       <c r="C3" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="8" t="s">
+      <c r="D3" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="E3" s="9" t="s">
+      <c r="E3" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="8" t="s">
+      <c r="F3" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="G3" s="9" t="s">
+      <c r="G3" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H3" s="8" t="s">
+      <c r="H3" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="I3" s="9" t="s">
+      <c r="I3" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="J3" s="8" t="s">
+      <c r="J3" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="K3" s="9" t="s">
+      <c r="K3" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="L3" s="8" t="s">
+      <c r="L3" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="M3" s="9" t="s">
+      <c r="M3" s="5" t="s">
         <v>13</v>
       </c>
       <c r="N3" s="1" t="s">
@@ -609,280 +661,424 @@
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A4" s="5" t="s">
+    <row r="4" spans="1:15">
+      <c r="A4" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="15" t="s">
         <v>3</v>
       </c>
       <c r="C4" t="s">
         <v>15</v>
       </c>
-      <c r="D4" s="10">
+      <c r="D4" s="6">
         <v>0.15570000000000001</v>
       </c>
-      <c r="E4" s="11">
+      <c r="E4" s="7">
         <v>9.5100000000000004E-2</v>
       </c>
-      <c r="F4" s="10">
+      <c r="F4" s="6">
         <v>7.1900000000000006E-2</v>
       </c>
-      <c r="G4" s="11">
+      <c r="G4" s="7">
         <v>5.04E-2</v>
       </c>
-      <c r="H4" s="10">
+      <c r="H4" s="6">
         <v>5.28E-2</v>
       </c>
-      <c r="I4" s="11">
+      <c r="I4" s="7">
         <v>3.04E-2</v>
       </c>
-      <c r="J4" s="10">
+      <c r="J4" s="6">
         <v>0.1017</v>
       </c>
-      <c r="K4" s="11">
+      <c r="K4" s="7">
         <v>7.46E-2</v>
       </c>
-      <c r="L4" s="14" t="s">
+      <c r="L4" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="M4" s="15" t="s">
+      <c r="M4" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="N4" s="4"/>
-      <c r="O4" s="4"/>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A5" s="5"/>
-      <c r="B5" s="5"/>
+      <c r="N4" s="3"/>
+      <c r="O4" s="3"/>
+    </row>
+    <row r="5" spans="1:15">
+      <c r="A5" s="15"/>
+      <c r="B5" s="15"/>
       <c r="C5" t="s">
         <v>16</v>
       </c>
-      <c r="D5" s="10">
+      <c r="D5" s="6">
         <v>0.15570000000000001</v>
       </c>
-      <c r="E5" s="11">
+      <c r="E5" s="7">
         <v>9.5100000000000004E-2</v>
       </c>
-      <c r="F5" s="10">
+      <c r="F5" s="6">
         <v>8.1299999999999997E-2</v>
       </c>
-      <c r="G5" s="11">
+      <c r="G5" s="7">
         <v>5.1200000000000002E-2</v>
       </c>
-      <c r="H5" s="10">
+      <c r="H5" s="6">
         <v>5.4399999999999997E-2</v>
       </c>
-      <c r="I5" s="11">
+      <c r="I5" s="7">
         <v>3.2500000000000001E-2</v>
       </c>
-      <c r="J5" s="10">
+      <c r="J5" s="6">
         <v>0.11020000000000001</v>
       </c>
-      <c r="K5" s="11">
+      <c r="K5" s="7">
         <v>7.6499999999999999E-2</v>
       </c>
-      <c r="L5" s="14" t="s">
+      <c r="L5" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="M5" s="15" t="s">
+      <c r="M5" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="N5" s="4"/>
-      <c r="O5" s="4"/>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A6" s="5"/>
-      <c r="B6" s="5"/>
+      <c r="N5" s="3"/>
+      <c r="O5" s="3"/>
+    </row>
+    <row r="6" spans="1:15">
+      <c r="A6" s="15"/>
+      <c r="B6" s="15"/>
       <c r="C6" t="s">
         <v>11</v>
       </c>
-      <c r="D6" s="12">
+      <c r="D6" s="8">
         <v>0.15570000000000001</v>
       </c>
-      <c r="E6" s="13">
+      <c r="E6" s="9">
         <v>9.5100000000000004E-2</v>
       </c>
-      <c r="F6" s="12">
+      <c r="F6" s="8">
         <v>9.2100000000000001E-2</v>
       </c>
-      <c r="G6" s="13">
+      <c r="G6" s="9">
         <v>5.4100000000000002E-2</v>
       </c>
-      <c r="H6" s="12">
+      <c r="H6" s="8">
         <v>6.5600000000000006E-2</v>
       </c>
-      <c r="I6" s="13">
+      <c r="I6" s="9">
         <v>4.19E-2</v>
       </c>
-      <c r="J6" s="12">
+      <c r="J6" s="8">
         <v>0.1242</v>
       </c>
-      <c r="K6" s="13">
+      <c r="K6" s="9">
         <v>8.1600000000000006E-2</v>
       </c>
-      <c r="L6" s="16" t="s">
+      <c r="L6" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="M6" s="17" t="s">
+      <c r="M6" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="N6" s="4"/>
-      <c r="O6" s="4"/>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="C15" s="18" t="s">
+      <c r="N6" s="3"/>
+      <c r="O6" s="3"/>
+    </row>
+    <row r="15" spans="1:15">
+      <c r="C15" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="D15" s="18" t="s">
+      <c r="D15" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="E15" s="18" t="s">
+      <c r="E15" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="F15" s="18" t="s">
+      <c r="F15" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="G15" s="18" t="s">
+      <c r="G15" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="H15" s="4"/>
-      <c r="I15" s="18" t="s">
+      <c r="H15" s="3"/>
+      <c r="I15" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="J15" s="18" t="s">
+      <c r="J15" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="K15" s="18" t="s">
+      <c r="K15" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="L15" s="18" t="s">
+      <c r="L15" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="M15" s="18" t="s">
+      <c r="M15" s="14" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="C16" s="4" t="s">
+    <row r="16" spans="1:15">
+      <c r="C16" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="D16" s="3">
+      <c r="D16" s="2">
         <v>0.15570000000000001</v>
       </c>
-      <c r="E16" s="4"/>
-      <c r="F16" s="4"/>
-      <c r="G16" s="4"/>
-      <c r="H16" s="4"/>
-      <c r="I16" s="4" t="s">
+      <c r="E16" s="3"/>
+      <c r="F16" s="3"/>
+      <c r="G16" s="3"/>
+      <c r="H16" s="3"/>
+      <c r="I16" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="J16" s="3">
+      <c r="J16" s="2">
         <v>0.15570000000000001</v>
       </c>
-      <c r="K16" s="4"/>
-      <c r="L16" s="4"/>
-      <c r="M16" s="4"/>
-    </row>
-    <row r="17" spans="3:13" x14ac:dyDescent="0.25">
-      <c r="C17" s="4" t="s">
+      <c r="K16" s="3"/>
+      <c r="L16" s="3"/>
+      <c r="M16" s="3"/>
+    </row>
+    <row r="17" spans="3:13">
+      <c r="C17" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="D17" s="4">
+      <c r="D17" s="3">
         <v>0.15210000000000001</v>
       </c>
-      <c r="E17" s="3">
+      <c r="E17" s="2">
         <v>7.1900000000000006E-2</v>
       </c>
-      <c r="F17" s="4"/>
-      <c r="G17" s="4"/>
-      <c r="H17" s="4"/>
-      <c r="I17" s="4" t="s">
+      <c r="F17" s="3"/>
+      <c r="G17" s="3"/>
+      <c r="H17" s="3"/>
+      <c r="I17" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="J17" s="4">
+      <c r="J17" s="3">
         <v>0.1537</v>
       </c>
-      <c r="K17" s="3">
+      <c r="K17" s="2">
         <v>8.1299999999999997E-2</v>
       </c>
-      <c r="L17" s="3"/>
-      <c r="M17" s="3"/>
-    </row>
-    <row r="18" spans="3:13" x14ac:dyDescent="0.25">
-      <c r="C18" s="4" t="s">
+      <c r="L17" s="2"/>
+      <c r="M17" s="2"/>
+    </row>
+    <row r="18" spans="3:13">
+      <c r="C18" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="D18" s="4">
+      <c r="D18" s="3">
         <v>0.14990000000000001</v>
       </c>
-      <c r="E18" s="4">
+      <c r="E18" s="3">
         <v>5.2400000000000002E-2</v>
       </c>
-      <c r="F18" s="3">
+      <c r="F18" s="2">
         <v>5.28E-2</v>
       </c>
-      <c r="G18" s="4"/>
-      <c r="H18" s="4"/>
-      <c r="I18" s="4" t="s">
+      <c r="G18" s="3"/>
+      <c r="H18" s="3"/>
+      <c r="I18" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="J18" s="4">
+      <c r="J18" s="3">
         <v>0.152</v>
       </c>
-      <c r="K18" s="3">
+      <c r="K18" s="2">
         <v>6.2300000000000001E-2</v>
       </c>
-      <c r="L18" s="3">
+      <c r="L18" s="2">
         <v>5.4399999999999997E-2</v>
       </c>
-      <c r="M18" s="3"/>
-    </row>
-    <row r="19" spans="3:13" x14ac:dyDescent="0.25">
-      <c r="C19" s="4" t="s">
+      <c r="M18" s="2"/>
+    </row>
+    <row r="19" spans="3:13">
+      <c r="C19" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="D19" s="4">
+      <c r="D19" s="3">
         <v>0.1472</v>
       </c>
-      <c r="E19" s="4">
+      <c r="E19" s="3">
         <v>3.2899999999999999E-2</v>
       </c>
-      <c r="F19" s="4">
+      <c r="F19" s="3">
         <v>3.1099999999999999E-2</v>
       </c>
-      <c r="G19" s="3">
+      <c r="G19" s="2">
         <v>0.1017</v>
       </c>
-      <c r="H19" s="4"/>
-      <c r="I19" s="4" t="s">
+      <c r="H19" s="3"/>
+      <c r="I19" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="J19" s="4">
+      <c r="J19" s="3">
         <v>0.15010000000000001</v>
       </c>
-      <c r="K19" s="3">
+      <c r="K19" s="2">
         <v>4.8599999999999997E-2</v>
       </c>
-      <c r="L19" s="3">
+      <c r="L19" s="2">
         <v>3.8699999999999998E-2</v>
       </c>
-      <c r="M19" s="3">
+      <c r="M19" s="2">
         <v>0.11020000000000001</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="8">
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="L2:M2"/>
+    <mergeCell ref="N2:O2"/>
     <mergeCell ref="A4:A6"/>
     <mergeCell ref="B4:B6"/>
     <mergeCell ref="D2:E2"/>
     <mergeCell ref="F2:G2"/>
     <mergeCell ref="H2:I2"/>
-    <mergeCell ref="J2:K2"/>
-    <mergeCell ref="L2:M2"/>
-    <mergeCell ref="N2:O2"/>
   </mergeCells>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{10699101-2332-674D-A373-D96C8476A4A0}">
+  <dimension ref="A2:J8"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="2" spans="1:10">
+      <c r="A2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G2" t="s">
+        <v>25</v>
+      </c>
+      <c r="H2" t="s">
+        <v>26</v>
+      </c>
+      <c r="I2" t="s">
+        <v>27</v>
+      </c>
+      <c r="J2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" ht="19">
+      <c r="A3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C3" s="19">
+        <v>2.1332E-2</v>
+      </c>
+      <c r="D3" s="19">
+        <v>3.1883000000000002E-2</v>
+      </c>
+      <c r="E3" s="19">
+        <v>6.2448999999999998E-2</v>
+      </c>
+      <c r="F3" s="19">
+        <v>5.4032999999999998E-2</v>
+      </c>
+      <c r="G3" s="19">
+        <v>8.4059999999999996E-2</v>
+      </c>
+      <c r="H3" s="19">
+        <v>5.9866000000000003E-2</v>
+      </c>
+      <c r="I3" s="19">
+        <v>0.128333</v>
+      </c>
+      <c r="J3" s="19">
+        <v>0.14058200000000001</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="19">
+      <c r="B4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C4" s="19">
+        <v>1.7576000000000001E-2</v>
+      </c>
+      <c r="D4" s="19">
+        <v>7.2440000000000004E-2</v>
+      </c>
+      <c r="E4" s="19">
+        <v>5.2430999999999998E-2</v>
+      </c>
+      <c r="F4" s="19">
+        <v>5.4427999999999997E-2</v>
+      </c>
+      <c r="G4" s="19">
+        <v>7.1549000000000001E-2</v>
+      </c>
+      <c r="H4" s="19">
+        <v>6.4853999999999995E-2</v>
+      </c>
+      <c r="I4" s="19">
+        <v>0.168214</v>
+      </c>
+      <c r="J4" s="19">
+        <v>0.20264199999999999</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" ht="19">
+      <c r="C7" s="19">
+        <v>1.2324E-2</v>
+      </c>
+      <c r="D7" s="19">
+        <v>1.5415E-2</v>
+      </c>
+      <c r="E7" s="19">
+        <v>1.2493000000000001E-2</v>
+      </c>
+      <c r="F7" s="19">
+        <v>1.2201999999999999E-2</v>
+      </c>
+      <c r="G7" s="19">
+        <v>1.7548000000000001E-2</v>
+      </c>
+      <c r="H7" s="19">
+        <v>1.3762E-2</v>
+      </c>
+      <c r="I7" s="19">
+        <v>1.4906000000000001E-2</v>
+      </c>
+      <c r="J7" s="19">
+        <v>1.0881999999999999E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" ht="19">
+      <c r="C8" s="19">
+        <v>1.3065E-2</v>
+      </c>
+      <c r="D8" s="19">
+        <v>1.4505000000000001E-2</v>
+      </c>
+      <c r="E8" s="19">
+        <v>1.0168E-2</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>